--- a/biology/Botanique/Forêt_de_Bouhmama/Forêt_de_Bouhmama.xlsx
+++ b/biology/Botanique/Forêt_de_Bouhmama/Forêt_de_Bouhmama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bouhmama</t>
+          <t>Forêt_de_Bouhmama</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Forêt de Bouhmama est une forêt située dans la région des Aurès en Algérie, entre la wilaya de Batna et la wilaya de Khenchela. Elle a fait l'objet d'études du ministre de l'agriculture algérien concernant la biodiversité[5]. Cette forêt est gérée par la Conservation des forêts de Khenchela sous la tutelle de la Direction générale des forêts (DGF).
+La Forêt de Bouhmama est une forêt située dans la région des Aurès en Algérie, entre la wilaya de Batna et la wilaya de Khenchela. Elle a fait l'objet d'études du ministre de l'agriculture algérien concernant la biodiversité. Cette forêt est gérée par la Conservation des forêts de Khenchela sous la tutelle de la Direction générale des forêts (DGF).
 </t>
         </is>
       </c>
